--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4266.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4266.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Mithun Ali</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1176,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1264,7 +1327,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1894,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2109,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2152,7 +2213,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2204,7 +2265,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2243,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2326,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2302,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2328,6 +2389,541 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>0/12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.22%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17.34%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.98%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15.58%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.87%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.94%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.88%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4266.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4266.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -621,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1176,6 +1176,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -1327,6 +1328,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1894,6 +1896,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -2395,539 +2398,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.22%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17.34%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.98%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15.58%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4418</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4420</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>26.94%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.90%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.83%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>